--- a/logs.xlsx
+++ b/logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omerabdullah/PracticeProjects/datasets/Electronics Store Dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DC22877-41B3-B747-94C1-0FBAB2B21B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{083329D8-DA20-6F46-9E2D-52FB12E4693B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16420" xr2:uid="{AD75EFE4-C711-CF45-A6AB-33A196EE2FA8}"/>
   </bookViews>
@@ -68,13 +68,13 @@
     <t>Y</t>
   </si>
   <si>
-    <t>26 of the rows were blanks in between of the table</t>
-  </si>
-  <si>
     <t>Dropped Rows to keep data consistant</t>
   </si>
   <si>
-    <t>rows that were self named. Example products where named as "products" and their prices was "price".</t>
+    <t>Rows that were self named. Example products where named as "products" and their prices was "price". (These were probably headers of multiple datasets. When concatenated together as a result ended up with multiple headers.)</t>
+  </si>
+  <si>
+    <t>Multiple of the rows were blanks in between of the table</t>
   </si>
 </sst>
 </file>
@@ -138,10 +138,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,81 +492,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{032EF08C-BE34-2A4B-8CDE-C86E68D4755C}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="84.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+    <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C4" s="6"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C5" s="6"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C8" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
